--- a/tests/polybench-c-4.0/results/final-charts.xlsx
+++ b/tests/polybench-c-4.0/results/final-charts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="28220" windowHeight="16920" tabRatio="500" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="28220" windowHeight="16920" tabRatio="758" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="vs. restrict" sheetId="1" r:id="rId1"/>
@@ -1054,11 +1054,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2075363272"/>
-        <c:axId val="2075366216"/>
+        <c:axId val="2069128056"/>
+        <c:axId val="2067515512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2075363272"/>
+        <c:axId val="2069128056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,7 +1068,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2075366216"/>
+        <c:crossAx val="2067515512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1076,7 +1076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075366216"/>
+        <c:axId val="2067515512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -1101,6 +1101,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#\ ?/?" sourceLinked="0"/>
@@ -1119,7 +1120,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075363272"/>
+        <c:crossAx val="2069128056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1641,11 +1642,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2075444456"/>
-        <c:axId val="2075447480"/>
+        <c:axId val="2067579672"/>
+        <c:axId val="2067582696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2075444456"/>
+        <c:axId val="2067579672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1655,7 +1656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2075447480"/>
+        <c:crossAx val="2067582696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1663,7 +1664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075447480"/>
+        <c:axId val="2067582696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -1688,6 +1689,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -1706,7 +1708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075444456"/>
+        <c:crossAx val="2067579672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -2229,11 +2231,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2075492888"/>
-        <c:axId val="2075495912"/>
+        <c:axId val="2067633864"/>
+        <c:axId val="2067636888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2075492888"/>
+        <c:axId val="2067633864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2243,7 +2245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2075495912"/>
+        <c:crossAx val="2067636888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2251,7 +2253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075495912"/>
+        <c:axId val="2067636888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0"/>
@@ -2276,6 +2278,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -2294,7 +2297,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075492888"/>
+        <c:crossAx val="2067633864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -2817,11 +2820,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2075540680"/>
-        <c:axId val="2075543704"/>
+        <c:axId val="2067681688"/>
+        <c:axId val="2067684712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2075540680"/>
+        <c:axId val="2067681688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2831,7 +2834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2075543704"/>
+        <c:crossAx val="2067684712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2839,7 +2842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075543704"/>
+        <c:axId val="2067684712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0"/>
@@ -2864,6 +2867,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -2882,7 +2886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075540680"/>
+        <c:crossAx val="2067681688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -3173,11 +3177,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2075584072"/>
-        <c:axId val="2075587080"/>
+        <c:axId val="2067725304"/>
+        <c:axId val="2067728312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2075584072"/>
+        <c:axId val="2067725304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3187,7 +3191,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2075587080"/>
+        <c:crossAx val="2067728312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3195,7 +3199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075587080"/>
+        <c:axId val="2067728312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -3238,7 +3242,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075584072"/>
+        <c:crossAx val="2067725304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -3505,11 +3509,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2080487160"/>
-        <c:axId val="2080490232"/>
+        <c:axId val="2067757512"/>
+        <c:axId val="2067760552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2080487160"/>
+        <c:axId val="2067757512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3529,7 +3533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2080490232"/>
+        <c:crossAx val="2067760552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3537,7 +3541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2080490232"/>
+        <c:axId val="2067760552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -3580,7 +3584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2080487160"/>
+        <c:crossAx val="2067757512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -3847,11 +3851,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2075624232"/>
-        <c:axId val="2075627240"/>
+        <c:axId val="2066945096"/>
+        <c:axId val="2066942072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2075624232"/>
+        <c:axId val="2066945096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3861,7 +3865,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2075627240"/>
+        <c:crossAx val="2066942072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3869,7 +3873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075627240"/>
+        <c:axId val="2066942072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -3912,7 +3916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075624232"/>
+        <c:crossAx val="2066945096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -4179,11 +4183,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2084912232"/>
-        <c:axId val="2081196088"/>
+        <c:axId val="2066913192"/>
+        <c:axId val="2066910136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2084912232"/>
+        <c:axId val="2066913192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4203,7 +4207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081196088"/>
+        <c:crossAx val="2066910136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4212,7 +4216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081196088"/>
+        <c:axId val="2066910136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -4255,7 +4259,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2084912232"/>
+        <c:crossAx val="2066913192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -4528,11 +4532,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2075666808"/>
-        <c:axId val="2075669816"/>
+        <c:axId val="2066874344"/>
+        <c:axId val="2066871320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2075666808"/>
+        <c:axId val="2066874344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4542,7 +4546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2075669816"/>
+        <c:crossAx val="2066871320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4550,7 +4554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075669816"/>
+        <c:axId val="2066871320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4592,7 +4596,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075666808"/>
+        <c:crossAx val="2066874344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5255,7 +5259,7 @@
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6590,7 +6594,7 @@
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7979,7 +7983,7 @@
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9393,7 +9397,7 @@
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10796,8 +10800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11811,7 +11815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -12826,8 +12830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
